--- a/Demo.suite/Resources/Orders.xlsx
+++ b/Demo.suite/Resources/Orders.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anne/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anfoster/Documents/EggplantSuites/Anne-Demo/Demo.suite/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A8AF8FA-8F62-A54D-A2C2-E9E4F92C5D89}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16C3D8D3-0DB6-864C-B3F0-A06A50193890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="2060" windowWidth="27640" windowHeight="16940" xr2:uid="{6290912A-5C59-9441-AAA6-13598B044CA5}"/>
+    <workbookView xWindow="16240" yWindow="1660" windowWidth="27640" windowHeight="16940" xr2:uid="{6290912A-5C59-9441-AAA6-13598B044CA5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>MRN</t>
   </si>
@@ -39,7 +39,16 @@
     <t>ORD#</t>
   </si>
   <si>
-    <t>IDCCode</t>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Department</t>
+  </si>
+  <si>
+    <t>IDCCode ID</t>
+  </si>
+  <si>
+    <t>Root</t>
   </si>
 </sst>
 </file>
@@ -391,42 +400,78 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{278A6A8F-ABA3-5545-9D67-D5EF18076B80}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>234235346</v>
+      </c>
+      <c r="C2">
+        <v>4345346</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>3635653</v>
+      </c>
+      <c r="C3">
+        <v>45746457</v>
+      </c>
+      <c r="E3">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>234235346</v>
-      </c>
-      <c r="B2">
-        <v>4345346</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>3635653</v>
-      </c>
-      <c r="B3">
-        <v>45746457</v>
+      <c r="B4">
+        <v>-226964040</v>
+      </c>
+      <c r="C4">
+        <v>87147568</v>
+      </c>
+      <c r="E4">
+        <v>2356</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>